--- a/sorted_data/quoi/quoi_all_rows_classified.xlsx
+++ b/sorted_data/quoi/quoi_all_rows_classified.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18624" uniqueCount="2990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18695" uniqueCount="2990">
   <si>
     <t>Mot exact</t>
   </si>
@@ -9997,6 +9997,9 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
@@ -10403,6 +10406,9 @@
       <c r="C29" t="s">
         <v>4</v>
       </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
@@ -10722,6 +10728,9 @@
       <c r="C37" t="s">
         <v>4</v>
       </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
       <c r="E37" t="s">
         <v>12</v>
       </c>
@@ -11804,6 +11813,9 @@
       <c r="C65" t="s">
         <v>4</v>
       </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
       <c r="E65" t="s">
         <v>12</v>
       </c>
@@ -12172,6 +12184,15 @@
       <c r="B75" t="s">
         <v>1</v>
       </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
       <c r="F75" t="s">
         <v>84</v>
       </c>
@@ -14787,6 +14808,9 @@
       <c r="C145" t="s">
         <v>4</v>
       </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
       <c r="E145" t="s">
         <v>12</v>
       </c>
@@ -15091,6 +15115,9 @@
       <c r="C153" t="s">
         <v>4</v>
       </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
       <c r="E153" t="s">
         <v>12</v>
       </c>
@@ -15199,6 +15226,15 @@
       <c r="B156" t="s">
         <v>1</v>
       </c>
+      <c r="C156" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="s">
+        <v>12</v>
+      </c>
       <c r="F156" t="s">
         <v>153</v>
       </c>
@@ -15272,6 +15308,15 @@
       <c r="B158" t="s">
         <v>1</v>
       </c>
+      <c r="C158" t="s">
+        <v>4</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>12</v>
+      </c>
       <c r="F158" t="s">
         <v>155</v>
       </c>
@@ -16567,6 +16612,9 @@
       <c r="C192" t="s">
         <v>4</v>
       </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
       <c r="E192" t="s">
         <v>12</v>
       </c>
@@ -17093,6 +17141,9 @@
       <c r="C206" t="s">
         <v>4</v>
       </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
       <c r="E206" t="s">
         <v>12</v>
       </c>
@@ -17131,6 +17182,9 @@
       <c r="C207" t="s">
         <v>4</v>
       </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
       <c r="E207" t="s">
         <v>12</v>
       </c>
@@ -18569,6 +18623,15 @@
       <c r="B245" t="s">
         <v>1</v>
       </c>
+      <c r="C245" t="s">
+        <v>4</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" t="s">
+        <v>12</v>
+      </c>
       <c r="F245" t="s">
         <v>233</v>
       </c>
@@ -20098,6 +20161,9 @@
       <c r="C285" t="s">
         <v>4</v>
       </c>
+      <c r="D285" t="s">
+        <v>7</v>
+      </c>
       <c r="E285" t="s">
         <v>12</v>
       </c>
@@ -21592,6 +21658,9 @@
       <c r="C324" t="s">
         <v>4</v>
       </c>
+      <c r="D324" t="s">
+        <v>7</v>
+      </c>
       <c r="E324" t="s">
         <v>12</v>
       </c>
@@ -22104,6 +22173,9 @@
       <c r="C337" t="s">
         <v>4</v>
       </c>
+      <c r="D337" t="s">
+        <v>7</v>
+      </c>
       <c r="E337" t="s">
         <v>12</v>
       </c>
@@ -23601,6 +23673,15 @@
       <c r="B376" t="s">
         <v>1</v>
       </c>
+      <c r="C376" t="s">
+        <v>4</v>
+      </c>
+      <c r="D376" t="s">
+        <v>7</v>
+      </c>
+      <c r="E376" t="s">
+        <v>12</v>
+      </c>
       <c r="F376" t="s">
         <v>337</v>
       </c>
@@ -24010,6 +24091,15 @@
       <c r="B387" t="s">
         <v>1</v>
       </c>
+      <c r="C387" t="s">
+        <v>4</v>
+      </c>
+      <c r="D387" t="s">
+        <v>7</v>
+      </c>
+      <c r="E387" t="s">
+        <v>12</v>
+      </c>
       <c r="F387" t="s">
         <v>347</v>
       </c>
@@ -25103,6 +25193,9 @@
       <c r="C416" t="s">
         <v>4</v>
       </c>
+      <c r="D416" t="s">
+        <v>7</v>
+      </c>
       <c r="E416" t="s">
         <v>12</v>
       </c>
@@ -25676,6 +25769,15 @@
       <c r="B431" t="s">
         <v>1</v>
       </c>
+      <c r="C431" t="s">
+        <v>4</v>
+      </c>
+      <c r="D431" t="s">
+        <v>7</v>
+      </c>
+      <c r="E431" t="s">
+        <v>12</v>
+      </c>
       <c r="F431" t="s">
         <v>383</v>
       </c>
@@ -25708,6 +25810,15 @@
       <c r="B432" t="s">
         <v>1</v>
       </c>
+      <c r="C432" t="s">
+        <v>4</v>
+      </c>
+      <c r="D432" t="s">
+        <v>7</v>
+      </c>
+      <c r="E432" t="s">
+        <v>12</v>
+      </c>
       <c r="F432" t="s">
         <v>384</v>
       </c>
@@ -26021,6 +26132,9 @@
       <c r="C440" t="s">
         <v>4</v>
       </c>
+      <c r="D440" t="s">
+        <v>7</v>
+      </c>
       <c r="E440" t="s">
         <v>12</v>
       </c>
@@ -28417,6 +28531,9 @@
       <c r="C501" t="s">
         <v>4</v>
       </c>
+      <c r="D501" t="s">
+        <v>7</v>
+      </c>
       <c r="E501" t="s">
         <v>12</v>
       </c>
@@ -31158,6 +31275,9 @@
       <c r="C574" t="s">
         <v>4</v>
       </c>
+      <c r="D574" t="s">
+        <v>7</v>
+      </c>
       <c r="E574" t="s">
         <v>12</v>
       </c>
@@ -31947,6 +32067,9 @@
       <c r="C595" t="s">
         <v>4</v>
       </c>
+      <c r="D595" t="s">
+        <v>7</v>
+      </c>
       <c r="E595" t="s">
         <v>12</v>
       </c>
@@ -32511,6 +32634,9 @@
       <c r="C610" t="s">
         <v>4</v>
       </c>
+      <c r="D610" t="s">
+        <v>7</v>
+      </c>
       <c r="E610" t="s">
         <v>12</v>
       </c>
@@ -33224,6 +33350,9 @@
       <c r="C629" t="s">
         <v>4</v>
       </c>
+      <c r="D629" t="s">
+        <v>7</v>
+      </c>
       <c r="E629" t="s">
         <v>12</v>
       </c>
@@ -33726,6 +33855,15 @@
       <c r="B643" t="s">
         <v>1</v>
       </c>
+      <c r="C643" t="s">
+        <v>4</v>
+      </c>
+      <c r="D643" t="s">
+        <v>7</v>
+      </c>
+      <c r="E643" t="s">
+        <v>12</v>
+      </c>
       <c r="F643" t="s">
         <v>542</v>
       </c>
@@ -33913,6 +34051,9 @@
       <c r="C648" t="s">
         <v>4</v>
       </c>
+      <c r="D648" t="s">
+        <v>7</v>
+      </c>
       <c r="E648" t="s">
         <v>12</v>
       </c>
@@ -34573,6 +34714,9 @@
       <c r="C666" t="s">
         <v>4</v>
       </c>
+      <c r="D666" t="s">
+        <v>7</v>
+      </c>
       <c r="E666" t="s">
         <v>12</v>
       </c>
@@ -34906,6 +35050,15 @@
       <c r="B675" t="s">
         <v>1</v>
       </c>
+      <c r="C675" t="s">
+        <v>4</v>
+      </c>
+      <c r="D675" t="s">
+        <v>7</v>
+      </c>
+      <c r="E675" t="s">
+        <v>12</v>
+      </c>
       <c r="F675" t="s">
         <v>565</v>
       </c>
@@ -35689,6 +35842,15 @@
       <c r="B696" t="s">
         <v>2</v>
       </c>
+      <c r="C696" t="s">
+        <v>4</v>
+      </c>
+      <c r="D696" t="s">
+        <v>7</v>
+      </c>
+      <c r="E696" t="s">
+        <v>12</v>
+      </c>
       <c r="F696" t="s">
         <v>577</v>
       </c>
@@ -36429,6 +36591,9 @@
       <c r="C715" t="s">
         <v>4</v>
       </c>
+      <c r="D715" t="s">
+        <v>7</v>
+      </c>
       <c r="E715" t="s">
         <v>12</v>
       </c>
@@ -37595,6 +37760,9 @@
       <c r="C746" t="s">
         <v>4</v>
       </c>
+      <c r="D746" t="s">
+        <v>7</v>
+      </c>
       <c r="E746" t="s">
         <v>12</v>
       </c>
@@ -37785,6 +37953,15 @@
       <c r="B751" t="s">
         <v>1</v>
       </c>
+      <c r="C751" t="s">
+        <v>4</v>
+      </c>
+      <c r="D751" t="s">
+        <v>7</v>
+      </c>
+      <c r="E751" t="s">
+        <v>12</v>
+      </c>
       <c r="F751" t="s">
         <v>624</v>
       </c>
@@ -39211,6 +39388,9 @@
       <c r="C789" t="s">
         <v>4</v>
       </c>
+      <c r="D789" t="s">
+        <v>7</v>
+      </c>
       <c r="E789" t="s">
         <v>12</v>
       </c>
@@ -43935,6 +44115,9 @@
       <c r="C913" t="s">
         <v>4</v>
       </c>
+      <c r="D913" t="s">
+        <v>7</v>
+      </c>
       <c r="E913" t="s">
         <v>12</v>
       </c>
@@ -50446,6 +50629,15 @@
       <c r="B1083" t="s">
         <v>1</v>
       </c>
+      <c r="C1083" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>12</v>
+      </c>
       <c r="F1083" t="s">
         <v>875</v>
       </c>
@@ -60411,6 +60603,15 @@
       <c r="B1351" t="s">
         <v>2</v>
       </c>
+      <c r="C1351" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>12</v>
+      </c>
       <c r="F1351" t="s">
         <v>1121</v>
       </c>
@@ -74841,6 +75042,15 @@
       <c r="B1729" t="s">
         <v>2</v>
       </c>
+      <c r="C1729" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>12</v>
+      </c>
       <c r="F1729" t="s">
         <v>1415</v>
       </c>
@@ -84232,6 +84442,9 @@
       </c>
       <c r="C1970" t="s">
         <v>4</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>7</v>
       </c>
       <c r="E1970" t="s">
         <v>12</v>
